--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -1,56 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHL20130118\Develops\配置表\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE7DF1-DECB-40D4-9B9B-830EEB85D0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26670" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="参数" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$4:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$4:$AN$160</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>yd</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -59,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +54,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -91,7 +69,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,14 +81,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -120,7 +96,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -147,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -164,14 +137,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -201,14 +173,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -217,7 +188,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -229,7 +199,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">-1=左边赛道
@@ -242,14 +211,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="S1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yd:</t>
@@ -258,7 +226,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -272,14 +239,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -309,14 +275,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">无目标 0
@@ -343,14 +308,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -359,7 +323,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -373,14 +336,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yd:</t>
@@ -389,7 +351,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -399,14 +360,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -415,7 +375,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -424,16 +383,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -443,14 +401,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -459,7 +416,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -472,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="375">
   <si>
     <t>技能ID</t>
   </si>
@@ -531,6 +487,9 @@
     <t>索敌时忽略目标类型</t>
   </si>
   <si>
+    <t>索敌是否忽略背后目标</t>
+  </si>
+  <si>
     <t>索敌目标条件</t>
   </si>
   <si>
@@ -549,30 +508,69 @@
     <t>索敌数量</t>
   </si>
   <si>
+    <t>技能消耗类型</t>
+  </si>
+  <si>
+    <t>技能消耗数值</t>
+  </si>
+  <si>
+    <t>回能类型</t>
+  </si>
+  <si>
+    <t>回能数值</t>
+  </si>
+  <si>
+    <t>冷却时间ms</t>
+  </si>
+  <si>
+    <t>初始冷却时间ms</t>
+  </si>
+  <si>
+    <t>公共冷却时间ms</t>
+  </si>
+  <si>
+    <t>技能名字</t>
+  </si>
+  <si>
+    <t>升级文字描述</t>
+  </si>
+  <si>
+    <t>技能伤害</t>
+  </si>
+  <si>
+    <t>技能品质框</t>
+  </si>
+  <si>
+    <t>是否Y轴索敌</t>
+  </si>
+  <si>
+    <t>最低Y轴索敌坐标</t>
+  </si>
+  <si>
+    <t>最高Y轴 索敌坐标</t>
+  </si>
+  <si>
+    <t>触发事件ID</t>
+  </si>
+  <si>
+    <t>属性加成buff</t>
+  </si>
+  <si>
+    <t> 技能图标 </t>
+  </si>
+  <si>
+    <t>技能触发是否飘字</t>
+  </si>
+  <si>
+    <t>技能飘字文本</t>
+  </si>
+  <si>
+    <t>打断条时长</t>
+  </si>
+  <si>
     <t>技能触发是否重新索敌</t>
   </si>
   <si>
-    <t>技能消耗类型</t>
-  </si>
-  <si>
-    <t>技能消耗数值</t>
-  </si>
-  <si>
-    <t>回能类型</t>
-  </si>
-  <si>
-    <t>回能数值</t>
-  </si>
-  <si>
-    <t>冷却时间ms</t>
-  </si>
-  <si>
-    <t>初始冷却时间ms</t>
-  </si>
-  <si>
-    <t>公共冷却时间ms</t>
-  </si>
-  <si>
     <t>技能释放时长ms</t>
   </si>
   <si>
@@ -582,45 +580,9 @@
     <t>升级消耗数量</t>
   </si>
   <si>
-    <t>技能名字</t>
-  </si>
-  <si>
-    <t>升级文字描述</t>
-  </si>
-  <si>
     <t>技能提供战力</t>
   </si>
   <si>
-    <t>技能伤害</t>
-  </si>
-  <si>
-    <t>属性加成buff</t>
-  </si>
-  <si>
-    <t> 技能图标 </t>
-  </si>
-  <si>
-    <t>技能触发是否飘字</t>
-  </si>
-  <si>
-    <t>技能品质框</t>
-  </si>
-  <si>
-    <t>打断条时长</t>
-  </si>
-  <si>
-    <t>是否Y轴索敌</t>
-  </si>
-  <si>
-    <t>最低Y轴索敌坐标</t>
-  </si>
-  <si>
-    <t>最高Y轴 索敌坐标</t>
-  </si>
-  <si>
-    <t>触发事件ID</t>
-  </si>
-  <si>
     <t>uint</t>
   </si>
   <si>
@@ -741,6 +703,9 @@
     <t>lockFilterFlags</t>
   </si>
   <si>
+    <t>canLockBehind</t>
+  </si>
+  <si>
     <t>targetCondition</t>
   </si>
   <si>
@@ -759,30 +724,69 @@
     <t>targetNumbers</t>
   </si>
   <si>
+    <t>costType</t>
+  </si>
+  <si>
+    <t>costValue</t>
+  </si>
+  <si>
+    <t>gainSpType</t>
+  </si>
+  <si>
+    <t>GainSpValue</t>
+  </si>
+  <si>
+    <t>coolDown</t>
+  </si>
+  <si>
+    <t>initialCoolDown</t>
+  </si>
+  <si>
+    <t>globalCoolDown</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>upgradeDescID</t>
+  </si>
+  <si>
+    <t>skillDamageID</t>
+  </si>
+  <si>
+    <t>qualityFrame</t>
+  </si>
+  <si>
+    <t>lockHeight</t>
+  </si>
+  <si>
+    <t>minLockHeight</t>
+  </si>
+  <si>
+    <t>maxLockHeight</t>
+  </si>
+  <si>
+    <t>beginEventId</t>
+  </si>
+  <si>
+    <t>attrBuffs</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>isFloating</t>
+  </si>
+  <si>
+    <t>skillFloating</t>
+  </si>
+  <si>
+    <t>interruptTime</t>
+  </si>
+  <si>
     <t>targetReset</t>
   </si>
   <si>
-    <t>costType</t>
-  </si>
-  <si>
-    <t>costValue</t>
-  </si>
-  <si>
-    <t>gainSpType</t>
-  </si>
-  <si>
-    <t>GainSpValue</t>
-  </si>
-  <si>
-    <t>coolDown</t>
-  </si>
-  <si>
-    <t>initialCoolDown</t>
-  </si>
-  <si>
-    <t>globalCoolDown</t>
-  </si>
-  <si>
     <t>skillTriggerCoolDown</t>
   </si>
   <si>
@@ -792,70 +796,526 @@
     <t>upgradeCostValue</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>upgradeDescID</t>
-  </si>
-  <si>
     <t>fightPower</t>
   </si>
   <si>
-    <t>skillDamageID</t>
-  </si>
-  <si>
-    <t>attrBuffs</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>qualityFrame</t>
-  </si>
-  <si>
-    <t>interruptTime</t>
-  </si>
-  <si>
-    <t>lockHeight</t>
-  </si>
-  <si>
-    <t>minLockHeight</t>
-  </si>
-  <si>
-    <t>maxLockHeight</t>
-  </si>
-  <si>
-    <t>beginEventId</t>
+    <t>猩红之牙-1级武器普攻</t>
+  </si>
+  <si>
+    <t>1|2|4</t>
+  </si>
+  <si>
+    <t>猩红之牙-2级武器普攻</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>猩红之牙-3级武器普攻</t>
+  </si>
+  <si>
+    <t>烈焰弩手-普攻技能</t>
+  </si>
+  <si>
+    <t>烈焰弩手-1级武器普攻</t>
+  </si>
+  <si>
+    <t>烈焰弩手-2级武器普攻</t>
+  </si>
+  <si>
+    <t>烈焰弩手-3级武器普攻</t>
+  </si>
+  <si>
+    <t>雷霆之牙-普攻技能</t>
+  </si>
+  <si>
+    <t>雷霆之牙-1级武器普攻</t>
+  </si>
+  <si>
+    <t>雷霆之牙-2级武器普攻</t>
+  </si>
+  <si>
+    <t>雷霆之牙-3级武器普攻</t>
+  </si>
+  <si>
+    <t>溪流法师-普攻技能</t>
+  </si>
+  <si>
+    <t>溪流法师-1级武器普攻</t>
+  </si>
+  <si>
+    <t>溪流法师-2级武器普攻</t>
+  </si>
+  <si>
+    <t>溪流法师-3级武器普攻</t>
+  </si>
+  <si>
+    <t>近战怪物通用-普攻技能</t>
+  </si>
+  <si>
+    <t>远程怪物通用-普攻技能</t>
   </si>
   <si>
     <t>1|2|4|6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1|2|4</t>
-  </si>
-  <si>
-    <t>烈焰弩手-普攻技能</t>
+    <t>对峙冲撞小怪通用-普攻技能</t>
+  </si>
+  <si>
+    <t>对峙怪物通用-普通攻击</t>
+  </si>
+  <si>
+    <t>精英怪物-普通攻击</t>
+  </si>
+  <si>
+    <t>精英怪物-分裂攻击</t>
+  </si>
+  <si>
+    <t>精英怪物-召唤小怪</t>
+  </si>
+  <si>
+    <t>精英-大地守卫-skill1</t>
+  </si>
+  <si>
+    <t>精英-大地守卫-skill2</t>
+  </si>
+  <si>
+    <t>无尽跑酷赛道外青蛙攻击</t>
+  </si>
+  <si>
+    <t>无尽跑酷障碍伤害</t>
+  </si>
+  <si>
+    <t>猩红之牙-大招</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/skill/icon_skill_A05.png</t>
   </si>
   <si>
     <t>烈焰弩手-大招</t>
   </si>
   <si>
+    <t>Assets/Datas/Texture/skill/icon_skill_A02.png</t>
+  </si>
+  <si>
     <t>雷霆之牙-大招</t>
   </si>
   <si>
-    <t>近战怪物通用-普攻技能</t>
-  </si>
-  <si>
-    <t>远程怪物通用-普攻技能</t>
-  </si>
-  <si>
-    <t>无尽跑酷赛道外青蛙攻击</t>
-  </si>
-  <si>
-    <t>无尽跑酷障碍伤害</t>
+    <t>Assets/Datas/Texture/skill/icon_skill_A01.png</t>
+  </si>
+  <si>
+    <t>溪流法师-大招</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/skill/icon_skill_A03.png</t>
+  </si>
+  <si>
+    <t>烈焰弩手-测试-普攻</t>
+  </si>
+  <si>
+    <t>demo-长矛哥布林</t>
+  </si>
+  <si>
+    <t>demo-精灵龙-技能1</t>
+  </si>
+  <si>
+    <t>demo-精灵龙-技能2</t>
+  </si>
+  <si>
+    <t>龙蛋攻击-跟踪</t>
+  </si>
+  <si>
+    <t>龙蛋攻击-非跟踪</t>
+  </si>
+  <si>
+    <t>僚机A-攻击-全赛道索敌</t>
+  </si>
+  <si>
+    <t>僚机B-攻击-当前赛道索敌</t>
+  </si>
+  <si>
+    <t>僚机C-攻击-全赛道索敌</t>
+  </si>
+  <si>
+    <t>宝藏哥布林-洒金币</t>
+  </si>
+  <si>
+    <t>宝藏哥布林-主线-洒金币</t>
+  </si>
+  <si>
+    <t>野猪王-技能1</t>
+  </si>
+  <si>
+    <t>野猪王-技能2</t>
+  </si>
+  <si>
+    <t>野猪王-技能5</t>
+  </si>
+  <si>
+    <t>新手-野猪王-技能1</t>
+  </si>
+  <si>
+    <t>新手-野猪王-技能2</t>
+  </si>
+  <si>
+    <t>新手-野猪王-技能3</t>
+  </si>
+  <si>
+    <t>电风蛇-技能1</t>
+  </si>
+  <si>
+    <t>电风蛇-技能2</t>
+  </si>
+  <si>
+    <t>电风蛇-狂暴</t>
+  </si>
+  <si>
+    <t>电风蛇-新手-技能1</t>
+  </si>
+  <si>
+    <t>电风蛇-新手-技能2</t>
+  </si>
+  <si>
+    <t>电风蛇-新手-狂暴</t>
+  </si>
+  <si>
+    <t>斩尾龙-技能1</t>
+  </si>
+  <si>
+    <t>斩尾龙-技能2</t>
+  </si>
+  <si>
+    <t>斩尾龙-新手-技能1</t>
+  </si>
+  <si>
+    <t>斩尾龙-新手-技能2</t>
+  </si>
+  <si>
+    <t>精灵龙-技能1</t>
+  </si>
+  <si>
+    <t>新手精灵龙-技能2</t>
+  </si>
+  <si>
+    <t>精灵龙-技能3</t>
+  </si>
+  <si>
+    <t>精灵龙-技能4</t>
+  </si>
+  <si>
+    <t>精灵龙-新手-技能1</t>
+  </si>
+  <si>
+    <t>极地飞龙-吐息</t>
+  </si>
+  <si>
+    <t>极地飞龙-毁灭</t>
+  </si>
+  <si>
+    <t>极地飞龙-冰冷嚎叫</t>
+  </si>
+  <si>
+    <t>极地飞龙-蜷缩</t>
+  </si>
+  <si>
+    <t>狂暴巨猿-投掷</t>
+  </si>
+  <si>
+    <t>狂暴巨猿-大地震荡</t>
+  </si>
+  <si>
+    <t>狂暴巨猿-血气焕发</t>
+  </si>
+  <si>
+    <t>狂暴巨猿-毁灭投掷</t>
+  </si>
+  <si>
+    <t>火箭哥布林-投掷手雷</t>
+  </si>
+  <si>
+    <t>火箭哥布林-导弹轰炸</t>
+  </si>
+  <si>
+    <t>火箭哥布林-混乱尾气</t>
+  </si>
+  <si>
+    <t>火箭哥布林-快！僚机！</t>
+  </si>
+  <si>
+    <t>攻击-绿-10%</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_01.png</t>
+  </si>
+  <si>
+    <t>攻击-蓝-15%</t>
+  </si>
+  <si>
+    <t>最大血量-绿-10%</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_02.png</t>
+  </si>
+  <si>
+    <t>最大血量-蓝-20%</t>
+  </si>
+  <si>
+    <t>暴击率-绿-10%</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_03.png</t>
+  </si>
+  <si>
+    <t>暴击率-蓝-15%</t>
+  </si>
+  <si>
+    <t>攻击频率-绿-10%</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_04.png</t>
+  </si>
+  <si>
+    <t>攻击频率-蓝-15%</t>
+  </si>
+  <si>
+    <t>回血-蓝</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_05.png</t>
+  </si>
+  <si>
+    <t>吸血-绿</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_06.png</t>
+  </si>
+  <si>
+    <t>吸血-蓝</t>
+  </si>
+  <si>
+    <t>攻击-紫-40%</t>
+  </si>
+  <si>
+    <t>最大血量-紫-30%</t>
+  </si>
+  <si>
+    <t>暴击率-紫-25%</t>
+  </si>
+  <si>
+    <t>攻击频率-紫-25%</t>
+  </si>
+  <si>
+    <t>分裂-紫</t>
+  </si>
+  <si>
+    <t>分裂-紫-上buff</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_07.png</t>
+  </si>
+  <si>
+    <t>爆炸-紫</t>
+  </si>
+  <si>
+    <t>爆炸-紫-上buff</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_08.png</t>
+  </si>
+  <si>
+    <t>贯穿-紫</t>
+  </si>
+  <si>
+    <t>贯穿-紫-上buff</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_09.png</t>
+  </si>
+  <si>
+    <t>跟踪-紫</t>
+  </si>
+  <si>
+    <t>跟踪-紫-上buff</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_buff_10.png</t>
+  </si>
+  <si>
+    <t>召唤僚机A</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_egg_A1.png</t>
+  </si>
+  <si>
+    <t>召唤僚机B</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_egg_A2.png</t>
+  </si>
+  <si>
+    <t>召唤僚机C</t>
+  </si>
+  <si>
+    <t>Assets/Datas/Texture/buff/icon_egg_A3.png</t>
+  </si>
+  <si>
+    <t>PVP-角色加速</t>
+  </si>
+  <si>
+    <t>PVP-香蕉皮</t>
+  </si>
+  <si>
+    <t>PVP-洋葱头</t>
+  </si>
+  <si>
+    <t>PVP-旋风魔法</t>
+  </si>
+  <si>
+    <t>PVP-红色导弹</t>
+  </si>
+  <si>
+    <t>PVP-绿色导弹</t>
+  </si>
+  <si>
+    <t>PVP-蓝色导弹</t>
+  </si>
+  <si>
+    <t>PVP-魔法炸弹</t>
+  </si>
+  <si>
+    <t>PVP-魔法盾</t>
+  </si>
+  <si>
+    <t>PVP-爆浆蘑菇</t>
+  </si>
+  <si>
+    <t>PVP-拌锁</t>
+  </si>
+  <si>
+    <t>PVP-变大药水</t>
+  </si>
+  <si>
+    <t>宠物红红-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物红红-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物红红-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物红红-攻击lv4</t>
+  </si>
+  <si>
+    <t>宠物皇后-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物皇后-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物皇后-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物皇后-攻击lv4</t>
+  </si>
+  <si>
+    <t>宠物蘑菇-技能lv1</t>
+  </si>
+  <si>
+    <t>宠物蘑菇-技能lv2</t>
+  </si>
+  <si>
+    <t>宠物蘑菇-技能lv3</t>
+  </si>
+  <si>
+    <t>宠物蘑菇-技能lv4</t>
+  </si>
+  <si>
+    <t>宠物蘑菇-攻击</t>
+  </si>
+  <si>
+    <t>宠物金鱼-技能lv1</t>
+  </si>
+  <si>
+    <t>宠物金鱼-技能lv2</t>
+  </si>
+  <si>
+    <t>宠物金鱼-技能lv3</t>
+  </si>
+  <si>
+    <t>宠物金鱼-技能lv4</t>
+  </si>
+  <si>
+    <t>宠物金鱼-普攻</t>
+  </si>
+  <si>
+    <t>宠物暗星-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物暗星-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物暗星-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物暗星-攻击lv4</t>
+  </si>
+  <si>
+    <t>宠物土灵-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物土灵-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物土灵-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物土灵-攻击lv4</t>
+  </si>
+  <si>
+    <t>宠物小青龙-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物小青龙-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物小青龙-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物小青龙-攻击lv4</t>
+  </si>
+  <si>
+    <t>特殊技能-新手小黑龙</t>
+  </si>
+  <si>
+    <t>特殊技能-新手小黑龙普攻</t>
+  </si>
+  <si>
+    <t>宠物波斯-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物波斯-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物波斯-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物哈克斯-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物哈克斯-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物哈克斯-攻击lv3</t>
+  </si>
+  <si>
+    <t>宠物芭鲁-攻击lv1</t>
+  </si>
+  <si>
+    <t>宠物芭鲁-攻击lv2</t>
+  </si>
+  <si>
+    <t>宠物芭鲁-攻击lv3</t>
   </si>
   <si>
     <t>索敌参数</t>
@@ -1093,650 +1553,20 @@
   </si>
   <si>
     <t>与player表中的阵营相同</t>
-  </si>
-  <si>
-    <t>精灵龙-技能3</t>
-  </si>
-  <si>
-    <t>精灵龙-技能4</t>
-  </si>
-  <si>
-    <t>回血-蓝</t>
-  </si>
-  <si>
-    <t>吸血-绿</t>
-  </si>
-  <si>
-    <t>吸血-蓝</t>
-  </si>
-  <si>
-    <t>分裂-紫</t>
-  </si>
-  <si>
-    <t>爆炸-紫</t>
-  </si>
-  <si>
-    <t>贯穿-紫</t>
-  </si>
-  <si>
-    <t>跟踪-紫</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_01.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_02.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_03.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_04.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_05.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_06.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_07.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_08.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_09.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_buff_10.png</t>
-  </si>
-  <si>
-    <t>技能飘字文本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFloating</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillFloating</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#0#</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂-紫-上buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸-紫-上buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>贯穿-紫-上buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪-紫-上buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪王-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪王-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>野猪王-技能5</t>
-  </si>
-  <si>
-    <t>攻击-绿-10%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-蓝-15%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-紫-40%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量-绿-10%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率-绿-10%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率-蓝-15%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率-紫-25%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率-绿-10%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率-蓝-15%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率-紫-25%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量-紫-30%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量-蓝-20%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪流法师-普攻技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪流法师-大招</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩尾龙-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩尾龙-技能2</t>
-  </si>
-  <si>
-    <t>宝藏哥布林-洒金币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-角色加速</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/skill/icon_skill_A01.png</t>
-  </si>
-  <si>
-    <t>烈焰弩手-1级武器普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰弩手-2级武器普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰弩手-3级武器普攻</t>
-  </si>
-  <si>
-    <t>雷霆之牙-普攻技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆之牙-1级武器普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆之牙-2级武器普攻</t>
-  </si>
-  <si>
-    <t>雷霆之牙-3级武器普攻</t>
-  </si>
-  <si>
-    <t>溪流法师-1级武器普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪流法师-2级武器普攻</t>
-  </si>
-  <si>
-    <t>溪流法师-3级武器普攻</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/skill/icon_skill_A02.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/skill/icon_skill_A03.png</t>
-  </si>
-  <si>
-    <t>精灵龙-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰弩手-测试-普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo-长矛哥布林</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo-精灵龙-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo-精灵龙-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手精灵龙-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-香蕉皮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-洋葱头</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-旋风魔法</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-红色导弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-绿色导弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-蓝色导弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-魔法炸弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-魔法盾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-爆浆蘑菇</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-拌锁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP-变大药水</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猩红之牙-1级武器普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>猩红之牙-2级武器普攻</t>
-  </si>
-  <si>
-    <t>猩红之牙-3级武器普攻</t>
-  </si>
-  <si>
-    <t>猩红之牙-大招</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/skill/icon_skill_A05.png</t>
-  </si>
-  <si>
-    <t>龙蛋攻击-跟踪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙蛋攻击-非跟踪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤僚机A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤僚机B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤僚机C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_egg_A1.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_egg_A2.png</t>
-  </si>
-  <si>
-    <t>Assets/Datas/Texture/buff/icon_egg_A3.png</t>
-  </si>
-  <si>
-    <t>僚机A-攻击-全赛道索敌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>僚机B-攻击-当前赛道索敌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>僚机C-攻击-全赛道索敌</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对峙冲撞小怪通用-普攻技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对峙怪物通用-普通攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪物-普通攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪物-分裂攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪物-召唤小怪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物蘑菇-攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物蘑菇-技能lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物蘑菇-技能lv2</t>
-  </si>
-  <si>
-    <t>宠物蘑菇-技能lv3</t>
-  </si>
-  <si>
-    <t>宠物蘑菇-技能lv4</t>
-  </si>
-  <si>
-    <t>宠物暗星-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物暗星-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物暗星-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物暗星-攻击lv4</t>
-  </si>
-  <si>
-    <t>宠物小青龙-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物小青龙-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物小青龙-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物小青龙-攻击lv4</t>
-  </si>
-  <si>
-    <t>宠物皇后-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物皇后-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物皇后-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物皇后-攻击lv4</t>
-  </si>
-  <si>
-    <t>宠物红红-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物红红-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物红红-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物红红-攻击lv4</t>
-  </si>
-  <si>
-    <t>索敌是否忽略背后目标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1#</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>canLockBehind</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物金鱼-技能lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物金鱼-技能lv2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物金鱼-技能lv3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物金鱼-技能lv4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物土灵-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物土灵-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物土灵-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物土灵-攻击lv4</t>
-  </si>
-  <si>
-    <t>电风蛇-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>电风蛇-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>电风蛇-狂暴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物波斯-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物波斯-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物波斯-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物哈克斯-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物哈克斯-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物哈克斯-攻击lv3</t>
-  </si>
-  <si>
-    <t>宠物芭鲁-攻击lv1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物芭鲁-攻击lv2</t>
-  </si>
-  <si>
-    <t>宠物芭鲁-攻击lv3</t>
-  </si>
-  <si>
-    <t>精英-大地守卫-skill1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英-大地守卫-skill2</t>
-  </si>
-  <si>
-    <t>极地飞龙-吐息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>极地飞龙-毁灭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>极地飞龙-冰冷嚎叫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>极地飞龙-蜷缩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴巨猿-投掷</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴巨猿-大地震荡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴巨猿-血气焕发</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴巨猿-毁灭投掷</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭哥布林-投掷手雷</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭哥布林-导弹轰炸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭哥布林-混乱尾气</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭哥布林-快！僚机！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物金鱼-普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手-野猪王-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手-野猪王-技能2</t>
-  </si>
-  <si>
-    <t>新手-野猪王-技能3</t>
-  </si>
-  <si>
-    <t>电风蛇-新手-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>电风蛇-新手-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>电风蛇-新手-狂暴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩尾龙-新手-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩尾龙-新手-技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵龙-新手-技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊技能-新手小黑龙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏哥布林-主线-洒金币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊技能-新手小黑龙普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,69 +1578,198 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1819,24 +1778,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7993408001953185"/>
+        <fgColor theme="8" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1870,13 +2015,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1886,28 +2273,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1917,19 +2304,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1946,102 +2378,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2050,9 +2387,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2310,22 +2644,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AA28" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O7" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF46" sqref="AF46"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
@@ -2343,7 +2678,7 @@
     <col min="15" max="15" width="21.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="22.125" style="1" customWidth="1"/>
     <col min="17" max="19" width="15.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.625" style="1" customWidth="1"/>
     <col min="21" max="21" width="32.75" style="1" customWidth="1"/>
     <col min="22" max="24" width="18.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="26.375" style="1" customWidth="1"/>
@@ -2363,7 +2698,7 @@
     <col min="40" max="40" width="18.625" style="1" customWidth="1"/>
     <col min="41" max="41" width="12.5" style="1" customWidth="1"/>
     <col min="42" max="42" width="11.5" style="1" customWidth="1"/>
-    <col min="43" max="43" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.5" style="1" customWidth="1"/>
     <col min="44" max="45" width="15.5" style="1" customWidth="1"/>
     <col min="46" max="46" width="14.875" style="1" customWidth="1"/>
     <col min="47" max="47" width="18.625" style="1" customWidth="1"/>
@@ -2374,7 +2709,7 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="16.5" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2411,10 +2746,10 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -2423,35 +2758,35 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>
@@ -2465,225 +2800,225 @@
       <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AM1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="AX1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:51">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="AM2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="AV2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:51">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2692,32 +3027,32 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -2733,199 +3068,199 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="AT3" s="3"/>
       <c r="AU3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
     </row>
-    <row r="4" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:51">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AM4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AP4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AR4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AS4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AT4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="AU4" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>10261</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>288</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2940,7 +3275,7 @@
         <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -2980,12 +3315,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="1">
         <v>10262</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>289</v>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3000,7 +3335,7 @@
         <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -3009,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N6" s="1">
         <v>100</v>
@@ -3033,13 +3368,13 @@
         <v>2</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y6" s="1">
         <v>2</v>
@@ -3048,17 +3383,17 @@
         <v>1</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="1">
         <v>0</v>
@@ -3067,21 +3402,21 @@
         <v>1026001</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL6" s="1">
         <v>1</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="1">
         <v>10263</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>290</v>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3096,7 +3431,7 @@
         <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -3105,13 +3440,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N7" s="1">
         <v>100</v>
@@ -3129,13 +3464,13 @@
         <v>2</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="1">
         <v>2</v>
@@ -3144,17 +3479,17 @@
         <v>1</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
@@ -3163,21 +3498,21 @@
         <v>1026001</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="1">
         <v>10300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3192,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -3201,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N8" s="1">
         <v>100</v>
@@ -3225,13 +3560,13 @@
         <v>2</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y8" s="1">
         <v>2</v>
@@ -3240,17 +3575,17 @@
         <v>1</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -3259,21 +3594,21 @@
         <v>1030001</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>10301</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>258</v>
+      <c r="B9" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -3288,7 +3623,7 @@
         <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -3328,12 +3663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="1">
         <v>10302</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>259</v>
+      <c r="B10" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -3348,7 +3683,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -3357,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N10" s="1">
         <v>100</v>
@@ -3381,13 +3716,13 @@
         <v>2</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y10" s="1">
         <v>2</v>
@@ -3396,17 +3731,17 @@
         <v>1</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI10" s="1">
         <v>0</v>
@@ -3415,21 +3750,21 @@
         <v>1030001</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL10" s="1">
         <v>1</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="1">
         <v>10303</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>260</v>
+      <c r="B11" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3444,7 +3779,7 @@
         <v>103</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -3453,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N11" s="1">
         <v>100</v>
@@ -3477,13 +3812,13 @@
         <v>2</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y11" s="1">
         <v>2</v>
@@ -3492,17 +3827,17 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI11" s="1">
         <v>0</v>
@@ -3511,21 +3846,21 @@
         <v>1030001</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:51">
       <c r="A12" s="1">
         <v>10490</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>261</v>
+      <c r="B12" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -3540,7 +3875,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -3549,14 +3884,14 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N12" s="1">
         <v>100</v>
@@ -3575,13 +3910,13 @@
         <v>2</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
@@ -3590,19 +3925,19 @@
         <v>1</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
@@ -3612,7 +3947,7 @@
         <v>1049001</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -3621,7 +3956,7 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -3633,12 +3968,12 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="1" spans="1:51">
       <c r="A13" s="1">
         <v>10491</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>262</v>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -3653,7 +3988,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -3662,14 +3997,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N13" s="1">
         <v>100</v>
@@ -3688,13 +4023,13 @@
         <v>2</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y13" s="1">
         <v>2</v>
@@ -3703,19 +4038,19 @@
         <v>1</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
@@ -3725,7 +4060,7 @@
         <v>1049001</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -3734,7 +4069,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
@@ -3746,12 +4081,12 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="1" spans="1:51">
       <c r="A14" s="1">
         <v>10492</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>263</v>
+      <c r="B14" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3766,7 +4101,7 @@
         <v>102</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -3775,14 +4110,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N14" s="1">
         <v>100</v>
@@ -3801,13 +4136,13 @@
         <v>2</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y14" s="1">
         <v>2</v>
@@ -3816,19 +4151,19 @@
         <v>1</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
@@ -3838,7 +4173,7 @@
         <v>1049001</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -3847,7 +4182,7 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
@@ -3859,12 +4194,12 @@
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
     </row>
-    <row r="15" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="1" spans="1:51">
       <c r="A15" s="1">
         <v>10493</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>264</v>
+      <c r="B15" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -3879,7 +4214,7 @@
         <v>103</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -3888,14 +4223,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N15" s="1">
         <v>100</v>
@@ -3914,13 +4249,13 @@
         <v>2</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="1">
         <v>2</v>
@@ -3929,19 +4264,19 @@
         <v>1</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
@@ -3951,7 +4286,7 @@
         <v>1049001</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3960,7 +4295,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
@@ -3972,12 +4307,12 @@
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
     </row>
-    <row r="16" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="1" spans="1:51">
       <c r="A16" s="1">
         <v>10530</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>251</v>
+      <c r="B16" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3992,7 +4327,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -4021,13 +4356,13 @@
         <v>2</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y16" s="1">
         <v>2</v>
@@ -4036,19 +4371,19 @@
         <v>1</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
@@ -4058,7 +4393,7 @@
         <v>1053001</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -4067,7 +4402,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
@@ -4079,12 +4414,12 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="1" spans="1:51">
       <c r="A17" s="1">
         <v>10531</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>265</v>
+      <c r="B17" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -4099,7 +4434,7 @@
         <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -4128,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y17" s="1">
         <v>2</v>
@@ -4143,19 +4478,19 @@
         <v>1</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1">
@@ -4165,7 +4500,7 @@
         <v>1053001</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -4174,7 +4509,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
@@ -4186,12 +4521,12 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
-    <row r="18" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="1" spans="1:51">
       <c r="A18" s="1">
         <v>10532</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>266</v>
+      <c r="B18" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4206,7 +4541,7 @@
         <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -4235,13 +4570,13 @@
         <v>2</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y18" s="1">
         <v>2</v>
@@ -4250,19 +4585,19 @@
         <v>1</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1">
@@ -4272,7 +4607,7 @@
         <v>1053001</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL18" s="1">
         <v>1</v>
@@ -4281,7 +4616,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
@@ -4293,12 +4628,12 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="1" spans="1:51">
       <c r="A19" s="1">
         <v>10533</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>267</v>
+      <c r="B19" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4313,7 +4648,7 @@
         <v>103</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -4342,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y19" s="1">
         <v>2</v>
@@ -4357,19 +4692,19 @@
         <v>1</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1">
@@ -4379,7 +4714,7 @@
         <v>1053001</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -4388,7 +4723,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
@@ -4400,12 +4735,12 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20" s="1">
         <v>15010</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4434,20 +4769,18 @@
       <c r="P20" s="1">
         <v>20</v>
       </c>
-      <c r="Q20" s="1">
-        <v>100</v>
-      </c>
+      <c r="Q20" s="1"/>
       <c r="U20" s="1">
         <v>2</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y20" s="1">
         <v>2</v>
@@ -4456,17 +4789,17 @@
         <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AJ20" s="11">
         <v>3002001</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
@@ -4475,12 +4808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21" s="1">
         <v>15020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -4495,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -4516,13 +4849,13 @@
         <v>2</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y21" s="1">
         <v>2</v>
@@ -4531,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
@@ -4543,10 +4876,10 @@
         <v>3002001</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU21" s="1">
         <v>0</v>
@@ -4555,12 +4888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>15030</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>304</v>
+      <c r="B22" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -4593,13 +4926,13 @@
         <v>2</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y22" s="1">
         <v>2</v>
@@ -4608,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AF22" s="1">
@@ -4618,10 +4951,10 @@
         <v>3002001</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU22" s="1">
         <v>0</v>
@@ -4630,12 +4963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>15040</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>305</v>
+      <c r="B23" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4665,13 +4998,13 @@
         <v>2</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y23" s="1">
         <v>2</v>
@@ -4680,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1">
@@ -4693,10 +5026,10 @@
         <v>3002001</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU23" s="1">
         <v>0</v>
@@ -4705,12 +5038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24" s="1">
         <v>15050</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>306</v>
+      <c r="B24" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4740,13 +5073,13 @@
         <v>2</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y24" s="1">
         <v>2</v>
@@ -4755,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1">
@@ -4771,10 +5104,10 @@
         <v>3002001</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU24" s="1">
         <v>0</v>
@@ -4783,12 +5116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" s="1">
         <v>15060</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>307</v>
+      <c r="B25" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4818,13 +5151,13 @@
         <v>2</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y25" s="1">
         <v>2</v>
@@ -4833,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1">
@@ -4849,10 +5182,10 @@
         <v>3002001</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -4861,12 +5194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" s="1">
         <v>15070</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>308</v>
+      <c r="B26" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4893,16 +5226,16 @@
         <v>60</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1">
@@ -4916,10 +5249,10 @@
       </c>
       <c r="AJ26" s="11"/>
       <c r="AK26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -4928,12 +5261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" s="1">
         <v>15080</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>354</v>
+      <c r="B27" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -4963,13 +5296,13 @@
         <v>2</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y27" s="1">
         <v>2</v>
@@ -4978,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1">
@@ -4994,10 +5327,10 @@
         <v>3002001</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -5006,12 +5339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28" s="1">
         <v>15090</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>355</v>
+      <c r="B28" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -5041,13 +5374,13 @@
         <v>2</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y28" s="1">
         <v>2</v>
@@ -5056,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1">
@@ -5072,10 +5405,10 @@
         <v>3002001</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
@@ -5084,12 +5417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" s="1">
         <v>16000</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -5104,13 +5437,13 @@
         <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -5125,22 +5458,22 @@
         <v>120</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -5149,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG29" s="1">
         <v>0</v>
@@ -5161,13 +5494,13 @@
         <v>3001001</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AV29" s="1">
         <v>0</v>
@@ -5179,12 +5512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" s="1">
         <v>16001</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -5202,10 +5535,10 @@
         <v>80</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -5226,7 +5559,7 @@
         <v>3001001</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AV30" s="1">
         <v>0</v>
@@ -5238,12 +5571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43">
       <c r="A31" s="1">
         <v>20260</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>291</v>
+      <c r="B31" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -5258,19 +5591,19 @@
         <v>9999</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>
@@ -5282,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y31" s="1">
         <v>2</v>
@@ -5312,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH31" s="1">
         <v>56102601</v>
@@ -5324,18 +5657,18 @@
         <v>2026001</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="1">
         <v>20300</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5350,19 +5683,19 @@
         <v>9999</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N32" s="1">
         <v>100</v>
@@ -5374,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y32" s="1">
         <v>3</v>
@@ -5404,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH32" s="1">
         <v>56103001</v>
@@ -5416,18 +5749,18 @@
         <v>2030001</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ32" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:51">
       <c r="A33" s="1">
         <v>20490</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -5442,21 +5775,21 @@
         <v>9999</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
@@ -5473,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -5502,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH33" s="1">
         <v>56104901</v>
@@ -5514,17 +5847,17 @@
         <v>2049001</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
@@ -5535,12 +5868,12 @@
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
     </row>
-    <row r="34" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="1" spans="1:51">
       <c r="A34" s="1">
         <v>20530</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>252</v>
+      <c r="B34" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -5555,7 +5888,7 @@
         <v>9999</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -5619,7 +5952,7 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -5630,12 +5963,12 @@
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
     </row>
-    <row r="35" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="1" spans="1:51">
       <c r="A35" s="1">
         <v>90300</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>271</v>
+      <c r="B35" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -5650,7 +5983,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -5659,14 +5992,14 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N35" s="1">
         <v>60</v>
@@ -5685,13 +6018,13 @@
         <v>2</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y35" s="1">
         <v>2</v>
@@ -5700,19 +6033,19 @@
         <v>1</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1">
@@ -5722,7 +6055,7 @@
         <v>1030001</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL35" s="1">
         <v>1</v>
@@ -5731,7 +6064,7 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -5743,12 +6076,12 @@
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
     </row>
-    <row r="36" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="1" spans="1:51">
       <c r="A36" s="1">
         <v>90301</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>272</v>
+      <c r="B36" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5762,8 +6095,8 @@
       <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>275</v>
+      <c r="G36" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -5792,13 +6125,13 @@
         <v>2</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y36" s="1">
         <v>2</v>
@@ -5808,7 +6141,7 @@
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -5823,14 +6156,14 @@
         <v>3002001</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -5846,12 +6179,12 @@
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
     </row>
-    <row r="37" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="1" spans="1:51">
       <c r="A37" s="1">
         <v>90302</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>273</v>
+      <c r="B37" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5931,12 +6264,12 @@
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
     </row>
-    <row r="38" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="1" spans="1:51">
       <c r="A38" s="1">
         <v>90303</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>274</v>
+      <c r="B38" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -6014,12 +6347,12 @@
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
     </row>
-    <row r="39" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="1" spans="1:51">
       <c r="A39" s="1">
         <v>90304</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>272</v>
+      <c r="B39" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -6033,8 +6366,8 @@
       <c r="F39" s="1">
         <v>10</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>275</v>
+      <c r="G39" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -6063,13 +6396,13 @@
         <v>2</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y39" s="1">
         <v>2</v>
@@ -6079,7 +6412,7 @@
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -6094,14 +6427,14 @@
         <v>3002001</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
@@ -6117,12 +6450,12 @@
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
     </row>
-    <row r="40" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="1" spans="1:51">
       <c r="A40" s="1">
         <v>90305</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>293</v>
+      <c r="B40" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -6137,7 +6470,7 @@
         <v>101</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -6206,12 +6539,12 @@
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
     </row>
-    <row r="41" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="1" spans="1:51">
       <c r="A41" s="1">
         <v>90306</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>294</v>
+      <c r="B41" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -6226,7 +6559,7 @@
         <v>102</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -6299,12 +6632,12 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
     </row>
-    <row r="42" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="1" spans="1:51">
       <c r="A42" s="1">
         <v>90307</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>301</v>
+      <c r="B42" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -6319,7 +6652,7 @@
         <v>101</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -6388,12 +6721,12 @@
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
     </row>
-    <row r="43" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="1" spans="1:51">
       <c r="A43" s="1">
         <v>90308</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>302</v>
+      <c r="B43" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -6408,7 +6741,7 @@
         <v>101</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -6479,12 +6812,12 @@
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
     </row>
-    <row r="44" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="1" spans="1:51">
       <c r="A44" s="1">
         <v>90309</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>303</v>
+      <c r="B44" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -6499,7 +6832,7 @@
         <v>101</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -6568,12 +6901,12 @@
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
     </row>
-    <row r="45" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="1" spans="1:51">
       <c r="A45" s="1">
         <v>2202901</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>255</v>
+      <c r="B45" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -6645,12 +6978,12 @@
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
     </row>
-    <row r="46" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="1" spans="1:51">
       <c r="A46" s="1">
         <v>2202902</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>379</v>
+      <c r="B46" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -6722,12 +7055,12 @@
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
     </row>
-    <row r="47" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="1" spans="1:51">
       <c r="A47" s="1">
         <v>2300101</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>236</v>
+      <c r="B47" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -6799,12 +7132,12 @@
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
     </row>
-    <row r="48" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="1" spans="1:51">
       <c r="A48" s="1">
         <v>2300102</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>237</v>
+      <c r="B48" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -6880,12 +7213,12 @@
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
     </row>
-    <row r="49" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="1" spans="1:51">
       <c r="A49" s="1">
         <v>2300105</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>238</v>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -6961,12 +7294,12 @@
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
     </row>
-    <row r="50" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="1" spans="1:51">
       <c r="A50" s="1">
         <v>2300111</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>369</v>
+      <c r="B50" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -7038,12 +7371,12 @@
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
     </row>
-    <row r="51" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="1" spans="1:51">
       <c r="A51" s="1">
         <v>2300112</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>370</v>
+      <c r="B51" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -7119,12 +7452,12 @@
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
     </row>
-    <row r="52" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="1" spans="1:51">
       <c r="A52" s="1">
         <v>2300113</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>371</v>
+      <c r="B52" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -7200,12 +7533,12 @@
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
     </row>
-    <row r="53" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="1" spans="1:51">
       <c r="A53" s="1">
         <v>2300801</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>342</v>
+      <c r="B53" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -7277,12 +7610,12 @@
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
     </row>
-    <row r="54" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="1" spans="1:51">
       <c r="A54" s="1">
         <v>2300802</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>343</v>
+      <c r="B54" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -7358,12 +7691,12 @@
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
     </row>
-    <row r="55" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="1" spans="1:51">
       <c r="A55" s="1">
         <v>2300803</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>344</v>
+      <c r="B55" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -7433,12 +7766,12 @@
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
     </row>
-    <row r="56" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="1" spans="1:51">
       <c r="A56" s="1">
         <v>2300811</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>372</v>
+      <c r="B56" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -7510,12 +7843,12 @@
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
     </row>
-    <row r="57" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="1" spans="1:51">
       <c r="A57" s="1">
         <v>2300812</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>373</v>
+      <c r="B57" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -7591,12 +7924,12 @@
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
     </row>
-    <row r="58" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="1" spans="1:51">
       <c r="A58" s="1">
         <v>2300813</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>374</v>
+      <c r="B58" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -7666,12 +7999,12 @@
       <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
     </row>
-    <row r="59" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="1" spans="1:51">
       <c r="A59" s="1">
         <v>2301201</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>253</v>
+      <c r="B59" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -7743,12 +8076,12 @@
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
     </row>
-    <row r="60" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="1" spans="1:51">
       <c r="A60" s="1">
         <v>2301202</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>254</v>
+      <c r="B60" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -7800,7 +8133,7 @@
       <c r="AF60" s="1">
         <v>8000</v>
       </c>
-      <c r="AG60" s="10">
+      <c r="AG60" s="6">
         <v>7500</v>
       </c>
       <c r="AH60" s="1"/>
@@ -7824,12 +8157,12 @@
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
     </row>
-    <row r="61" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="1" spans="1:51">
       <c r="A61" s="1">
         <v>2301211</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>375</v>
+      <c r="B61" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -7901,12 +8234,12 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
     </row>
-    <row r="62" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="1" spans="1:51">
       <c r="A62" s="1">
         <v>2301212</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>376</v>
+      <c r="B62" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -7958,7 +8291,7 @@
       <c r="AF62" s="1">
         <v>8000</v>
       </c>
-      <c r="AG62" s="10">
+      <c r="AG62" s="6">
         <v>9000</v>
       </c>
       <c r="AH62" s="1"/>
@@ -7982,12 +8315,12 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36">
       <c r="A63" s="1">
         <v>2301301</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>270</v>
+      <c r="B63" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -8020,12 +8353,12 @@
         <v>3002001</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36">
       <c r="A64" s="1">
         <v>2301302</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>276</v>
+      <c r="B64" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -8064,12 +8397,12 @@
         <v>3002001</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36">
       <c r="A65" s="1">
         <v>2301305</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>207</v>
+      <c r="B65" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -8108,12 +8441,12 @@
         <v>3002001</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36">
       <c r="A66" s="1">
         <v>2301306</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>208</v>
+      <c r="B66" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -8152,12 +8485,12 @@
         <v>3002001</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36">
       <c r="A67" s="1">
         <v>2301311</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>377</v>
+      <c r="B67" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -8190,12 +8523,12 @@
         <v>3002001</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36">
       <c r="A68" s="1">
         <v>2301601</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>356</v>
+      <c r="B68" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -8240,12 +8573,12 @@
         <v>3016001</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36">
       <c r="A69" s="1">
         <v>2301602</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>357</v>
+      <c r="B69" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -8284,12 +8617,12 @@
         <v>3016002</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36">
       <c r="A70" s="1">
         <v>2301603</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>358</v>
+      <c r="B70" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -8328,12 +8661,12 @@
         <v>3016003</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36">
       <c r="A71" s="1">
         <v>2301604</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>359</v>
+      <c r="B71" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -8369,12 +8702,12 @@
         <v>3016004</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36">
       <c r="A72" s="1">
         <v>2303801</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>360</v>
+      <c r="B72" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -8419,12 +8752,12 @@
         <v>3038001</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36">
       <c r="A73" s="1">
         <v>2303802</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>361</v>
+      <c r="B73" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -8463,12 +8796,12 @@
         <v>3038002</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36">
       <c r="A74" s="1">
         <v>2303803</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>362</v>
+      <c r="B74" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -8507,12 +8840,12 @@
         <v>3038003</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36">
       <c r="A75" s="1">
         <v>2303804</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>363</v>
+      <c r="B75" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -8548,12 +8881,12 @@
         <v>3038004</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36">
       <c r="A76" s="1">
         <v>2290101</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>364</v>
+      <c r="B76" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -8598,12 +8931,12 @@
         <v>3901001</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36">
       <c r="A77" s="1">
         <v>2290102</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>365</v>
+      <c r="B77" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -8642,12 +8975,12 @@
         <v>3901002</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36">
       <c r="A78" s="1">
         <v>2290103</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>366</v>
+      <c r="B78" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -8686,12 +9019,12 @@
         <v>3901003</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36">
       <c r="A79" s="1">
         <v>2290104</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>367</v>
+      <c r="B79" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -8727,12 +9060,12 @@
         <v>3901004</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:45">
       <c r="A80" s="1">
         <v>300101</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>239</v>
+      <c r="B80" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -8771,7 +9104,7 @@
         <v>50000001</v>
       </c>
       <c r="AQ80" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AR80" s="1">
         <v>1</v>
@@ -8780,12 +9113,12 @@
         <v>52000001</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:45">
       <c r="A81" s="1">
         <v>300102</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>240</v>
+      <c r="B81" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -8824,7 +9157,7 @@
         <v>50000002</v>
       </c>
       <c r="AQ81" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AR81" s="1">
         <v>1</v>
@@ -8833,12 +9166,12 @@
         <v>52000001</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:45">
       <c r="A82" s="1">
         <v>300201</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>242</v>
+      <c r="B82" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -8877,7 +9210,7 @@
         <v>50000003</v>
       </c>
       <c r="AQ82" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AR82" s="1">
         <v>1</v>
@@ -8886,12 +9219,12 @@
         <v>52000002</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:45">
       <c r="A83" s="1">
         <v>300202</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>250</v>
+      <c r="B83" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -8930,7 +9263,7 @@
         <v>50000004</v>
       </c>
       <c r="AQ83" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AR83" s="1">
         <v>1</v>
@@ -8939,12 +9272,12 @@
         <v>52000002</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:45">
       <c r="A84" s="1">
         <v>300301</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>243</v>
+      <c r="B84" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -8983,7 +9316,7 @@
         <v>50000005</v>
       </c>
       <c r="AQ84" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR84" s="1">
         <v>1</v>
@@ -8992,12 +9325,12 @@
         <v>52000003</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:45">
       <c r="A85" s="1">
         <v>300302</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>244</v>
+      <c r="B85" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -9036,7 +9369,7 @@
         <v>50000006</v>
       </c>
       <c r="AQ85" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR85" s="1">
         <v>1</v>
@@ -9045,12 +9378,12 @@
         <v>52000003</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:45">
       <c r="A86" s="1">
         <v>300401</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>246</v>
+      <c r="B86" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -9089,7 +9422,7 @@
         <v>50000007</v>
       </c>
       <c r="AQ86" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AR86" s="1">
         <v>1</v>
@@ -9098,12 +9431,12 @@
         <v>52000004</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:45">
       <c r="A87" s="1">
         <v>300402</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>247</v>
+      <c r="B87" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -9142,7 +9475,7 @@
         <v>50000008</v>
       </c>
       <c r="AQ87" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AR87" s="1">
         <v>1</v>
@@ -9151,12 +9484,12 @@
         <v>52000004</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:45">
       <c r="A88" s="1">
         <v>300501</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -9195,7 +9528,7 @@
         <v>50000010</v>
       </c>
       <c r="AQ88" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AR88" s="1">
         <v>1</v>
@@ -9204,12 +9537,12 @@
         <v>52000005</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:45">
       <c r="A89" s="1">
         <v>300502</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -9248,7 +9581,7 @@
         <v>50000010</v>
       </c>
       <c r="AQ89" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AR89" s="1">
         <v>1</v>
@@ -9257,12 +9590,12 @@
         <v>52000005</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:45">
       <c r="A90" s="1">
         <v>300503</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -9301,7 +9634,7 @@
         <v>50000010</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AR90" s="1">
         <v>1</v>
@@ -9310,12 +9643,12 @@
         <v>52000005</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:45">
       <c r="A91" s="1">
         <v>300601</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -9354,7 +9687,7 @@
         <v>50000011</v>
       </c>
       <c r="AQ91" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR91" s="1">
         <v>1</v>
@@ -9363,12 +9696,12 @@
         <v>52000006</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:45">
       <c r="A92" s="1">
         <v>300602</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -9407,7 +9740,7 @@
         <v>50000012</v>
       </c>
       <c r="AQ92" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR92" s="1">
         <v>1</v>
@@ -9416,12 +9749,12 @@
         <v>52000006</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:45">
       <c r="A93" s="1">
         <v>300103</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>241</v>
+      <c r="B93" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -9460,7 +9793,7 @@
         <v>50000017</v>
       </c>
       <c r="AQ93" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AR93" s="1">
         <v>1</v>
@@ -9469,12 +9802,12 @@
         <v>52000001</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:45">
       <c r="A94" s="1">
         <v>300203</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>249</v>
+      <c r="B94" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -9513,7 +9846,7 @@
         <v>50000018</v>
       </c>
       <c r="AQ94" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AR94" s="1">
         <v>1</v>
@@ -9522,12 +9855,12 @@
         <v>52000002</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
+    <row r="95" spans="1:45">
+      <c r="A95" s="6">
         <v>300303</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>245</v>
+      <c r="B95" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -9566,7 +9899,7 @@
         <v>50000019</v>
       </c>
       <c r="AQ95" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR95" s="1">
         <v>1</v>
@@ -9575,12 +9908,12 @@
         <v>52000003</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:45">
       <c r="A96" s="1">
         <v>300403</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>248</v>
+      <c r="B96" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -9619,7 +9952,7 @@
         <v>50000020</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AR96" s="1">
         <v>1</v>
@@ -9628,12 +9961,12 @@
         <v>52000004</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:45">
       <c r="A97" s="1">
         <v>300701</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -9663,13 +9996,13 @@
         <v>2</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y97" s="1">
         <v>2</v>
@@ -9678,17 +10011,17 @@
         <v>1</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD97" s="1"/>
       <c r="AF97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH97" s="1">
         <v>51000013</v>
@@ -9701,12 +10034,12 @@
       </c>
       <c r="AS97" s="12"/>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:45">
       <c r="A98" s="1">
         <v>300702</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>232</v>
+      <c r="B98" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -9745,7 +10078,7 @@
         <v>50000013</v>
       </c>
       <c r="AQ98" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AR98" s="1">
         <v>1</v>
@@ -9754,12 +10087,12 @@
         <v>52000007</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:45">
       <c r="A99" s="1">
         <v>300801</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -9789,13 +10122,13 @@
         <v>2</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y99" s="1">
         <v>2</v>
@@ -9804,17 +10137,17 @@
         <v>1</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AF99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH99" s="1">
         <v>51000014</v>
@@ -9827,12 +10160,12 @@
       </c>
       <c r="AS99" s="12"/>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:45">
       <c r="A100" s="1">
         <v>300802</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>233</v>
+      <c r="B100" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -9871,7 +10204,7 @@
         <v>50000014</v>
       </c>
       <c r="AQ100" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AR100" s="1">
         <v>1</v>
@@ -9880,12 +10213,12 @@
         <v>52000008</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:45">
       <c r="A101" s="1">
         <v>300901</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -9915,13 +10248,13 @@
         <v>2</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y101" s="1">
         <v>2</v>
@@ -9930,17 +10263,17 @@
         <v>1</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD101" s="1"/>
       <c r="AF101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH101" s="1">
         <v>51000015</v>
@@ -9953,12 +10286,12 @@
       </c>
       <c r="AS101" s="12"/>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:45">
       <c r="A102" s="1">
         <v>300902</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>234</v>
+      <c r="B102" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -9997,7 +10330,7 @@
         <v>50000015</v>
       </c>
       <c r="AQ102" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AR102" s="1">
         <v>1</v>
@@ -10006,12 +10339,12 @@
         <v>52000009</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:45">
       <c r="A103" s="1">
         <v>301001</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -10038,13 +10371,13 @@
         <v>2</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y103" s="1">
         <v>2</v>
@@ -10053,17 +10386,17 @@
         <v>1</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AD103" s="1"/>
       <c r="AF103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AH103" s="1">
         <v>51000016</v>
@@ -10076,11 +10409,11 @@
       </c>
       <c r="AS103" s="12"/>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:45">
       <c r="A104" s="1">
         <v>301002</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C104" s="1">
@@ -10120,7 +10453,7 @@
         <v>50000016</v>
       </c>
       <c r="AQ104" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AR104" s="1">
         <v>1</v>
@@ -10129,12 +10462,12 @@
         <v>52000010</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:45">
       <c r="A105" s="1">
         <v>301101</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>295</v>
+      <c r="B105" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -10173,16 +10506,16 @@
         <v>55610016</v>
       </c>
       <c r="AQ105" s="1" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="AS105" s="12"/>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45">
       <c r="A106" s="1">
         <v>301201</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>296</v>
+      <c r="B106" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -10221,16 +10554,16 @@
         <v>55610017</v>
       </c>
       <c r="AQ106" s="1" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="AS106" s="12"/>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:45">
       <c r="A107" s="1">
         <v>301301</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>297</v>
+      <c r="B107" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -10269,16 +10602,16 @@
         <v>55610018</v>
       </c>
       <c r="AQ107" s="1" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="AS107" s="12"/>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43">
       <c r="A108" s="1">
         <v>400001</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>256</v>
+      <c r="B108" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -10314,15 +10647,15 @@
         <v>1000</v>
       </c>
       <c r="AQ108" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>400011</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>277</v>
+      <c r="B109" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -10349,12 +10682,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26">
       <c r="A110" s="1">
         <v>400012</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>278</v>
+      <c r="B110" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C110" s="1">
         <v>2</v>
@@ -10390,12 +10723,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26">
       <c r="A111" s="1">
         <v>400013</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>279</v>
+      <c r="B111" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
@@ -10431,12 +10764,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26">
       <c r="A112" s="1">
         <v>400014</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>280</v>
+      <c r="B112" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -10472,12 +10805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>400015</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>281</v>
+      <c r="B113" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
@@ -10504,12 +10837,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26">
       <c r="A114" s="1">
         <v>400016</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>282</v>
+      <c r="B114" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="C114" s="1">
         <v>6</v>
@@ -10545,12 +10878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>400017</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>283</v>
+      <c r="B115" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C115" s="1">
         <v>7</v>
@@ -10577,12 +10910,12 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26">
       <c r="A116" s="1">
         <v>400018</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>284</v>
+      <c r="B116" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C116" s="1">
         <v>8</v>
@@ -10615,12 +10948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26">
       <c r="A117" s="1">
         <v>400019</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>285</v>
+      <c r="B117" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C117" s="1">
         <v>9</v>
@@ -10656,12 +10989,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26">
       <c r="A118" s="1">
         <v>400020</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>286</v>
+      <c r="B118" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C118" s="1">
         <v>10</v>
@@ -10697,12 +11030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26">
       <c r="A119" s="1">
         <v>400021</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>287</v>
+      <c r="B119" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C119" s="1">
         <v>11</v>
@@ -10735,12 +11068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36">
       <c r="A120" s="1">
         <v>5100301</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>326</v>
+      <c r="B120" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -10782,12 +11115,12 @@
         <v>5003001</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36">
       <c r="A121" s="1">
         <v>5100302</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>327</v>
+      <c r="B121" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -10829,12 +11162,12 @@
         <v>5003002</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36">
       <c r="A122" s="1">
         <v>5100303</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>328</v>
+      <c r="B122" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -10876,12 +11209,12 @@
         <v>5003002</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36">
       <c r="A123" s="1">
         <v>5100304</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>329</v>
+      <c r="B123" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -10923,12 +11256,12 @@
         <v>5003003</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36">
       <c r="A124" s="1">
         <v>5100401</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>322</v>
+      <c r="B124" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -10970,12 +11303,12 @@
         <v>5004001</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36">
       <c r="A125" s="1">
         <v>5100402</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>323</v>
+      <c r="B125" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -11017,12 +11350,12 @@
         <v>5004002</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36">
       <c r="A126" s="1">
         <v>5100403</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>324</v>
+      <c r="B126" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -11064,12 +11397,12 @@
         <v>5004002</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36">
       <c r="A127" s="1">
         <v>5100404</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>325</v>
+      <c r="B127" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -11111,12 +11444,12 @@
         <v>5004003</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36">
       <c r="A128" s="1">
         <v>5100501</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>310</v>
+      <c r="B128" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -11155,12 +11488,12 @@
         <v>5005001</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36">
       <c r="A129" s="1">
         <v>5100502</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>311</v>
+      <c r="B129" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -11199,12 +11532,12 @@
         <v>5005002</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36">
       <c r="A130" s="1">
         <v>5100503</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>312</v>
+      <c r="B130" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -11243,12 +11576,12 @@
         <v>5005002</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36">
       <c r="A131" s="1">
         <v>5100504</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>313</v>
+      <c r="B131" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -11287,12 +11620,12 @@
         <v>5005003</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36">
       <c r="A132" s="1">
         <v>5100510</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>309</v>
+      <c r="B132" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -11334,12 +11667,12 @@
         <v>5005010</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36">
       <c r="A133" s="1">
         <v>5100601</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>334</v>
+      <c r="B133" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -11378,12 +11711,12 @@
         <v>5006001</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36">
       <c r="A134" s="1">
         <v>5100602</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>335</v>
+      <c r="B134" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -11422,12 +11755,12 @@
         <v>5006002</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36">
       <c r="A135" s="1">
         <v>5100603</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>336</v>
+      <c r="B135" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -11466,12 +11799,12 @@
         <v>5006002</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36">
       <c r="A136" s="1">
         <v>5100604</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>337</v>
+      <c r="B136" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -11510,12 +11843,12 @@
         <v>5006003</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36">
       <c r="A137" s="1">
         <v>5100611</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>368</v>
+      <c r="B137" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -11557,12 +11890,12 @@
         <v>5006011</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36">
       <c r="A138" s="1">
         <v>5100701</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>314</v>
+      <c r="B138" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -11601,12 +11934,12 @@
         <v>5007001</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36">
       <c r="A139" s="1">
         <v>5100702</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>315</v>
+      <c r="B139" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -11645,12 +11978,12 @@
         <v>5007002</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36">
       <c r="A140" s="1">
         <v>5100703</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>316</v>
+      <c r="B140" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -11689,12 +12022,12 @@
         <v>5007002</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36">
       <c r="A141" s="1">
         <v>5100704</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>317</v>
+      <c r="B141" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -11733,12 +12066,12 @@
         <v>5007003</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36">
       <c r="A142" s="1">
         <v>5100801</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>338</v>
+      <c r="B142" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -11777,12 +12110,12 @@
         <v>5008001</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36">
       <c r="A143" s="1">
         <v>5100802</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>339</v>
+      <c r="B143" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -11821,12 +12154,12 @@
         <v>5008002</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36">
       <c r="A144" s="1">
         <v>5100803</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>340</v>
+      <c r="B144" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -11865,12 +12198,12 @@
         <v>5008002</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36">
       <c r="A145" s="1">
         <v>5100804</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>341</v>
+      <c r="B145" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -11909,12 +12242,12 @@
         <v>5008003</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36">
       <c r="A146" s="1">
         <v>5100901</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>318</v>
+      <c r="B146" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -11953,12 +12286,12 @@
         <v>5009001</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36">
       <c r="A147" s="1">
         <v>5100902</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>319</v>
+      <c r="B147" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -11997,12 +12330,12 @@
         <v>5009002</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36">
       <c r="A148" s="1">
         <v>5100903</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>320</v>
+      <c r="B148" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -12041,12 +12374,12 @@
         <v>5009002</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36">
       <c r="A149" s="1">
         <v>5100904</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>321</v>
+      <c r="B149" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -12085,12 +12418,12 @@
         <v>5009003</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36">
       <c r="A150" s="1">
         <v>5100905</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>378</v>
+      <c r="B150" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -12129,12 +12462,12 @@
         <v>5009001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36">
       <c r="A151" s="1">
         <v>5100906</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>380</v>
+      <c r="B151" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -12173,12 +12506,12 @@
         <v>5009002</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36">
       <c r="A152" s="1">
         <v>5101001</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>345</v>
+      <c r="B152" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -12220,12 +12553,12 @@
         <v>5010001</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36">
       <c r="A153" s="1">
         <v>5101002</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>346</v>
+      <c r="B153" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -12267,12 +12600,12 @@
         <v>5010002</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36">
       <c r="A154" s="1">
         <v>5101003</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>347</v>
+      <c r="B154" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -12314,12 +12647,12 @@
         <v>5010003</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36">
       <c r="A155" s="1">
         <v>5101101</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>348</v>
+      <c r="B155" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -12361,12 +12694,12 @@
         <v>5011001</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36">
       <c r="A156" s="1">
         <v>5101102</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>349</v>
+      <c r="B156" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -12408,12 +12741,12 @@
         <v>5011002</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36">
       <c r="A157" s="1">
         <v>5101103</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>350</v>
+      <c r="B157" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -12455,12 +12788,12 @@
         <v>5011003</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36">
       <c r="A158" s="1">
         <v>5101201</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>351</v>
+      <c r="B158" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -12502,12 +12835,12 @@
         <v>5012001</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36">
       <c r="A159" s="1">
         <v>5101202</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>352</v>
+      <c r="B159" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -12549,12 +12882,12 @@
         <v>5012002</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36">
       <c r="A160" s="1">
         <v>5101203</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>353</v>
+      <c r="B160" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -12597,109 +12930,112 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AN66" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <autoFilter ref="A4:AN160">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="W2:Z2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2126">
+      <formula>LEN(TRIM(W2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU2:AY2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2129">
+      <formula>LEN(TRIM(AU2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="2127">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2127">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N3">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="2137">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2137">
       <formula>LEN(TRIM(M3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:P4">
-    <cfRule type="duplicateValues" dxfId="11" priority="2106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Z4 AK4:AO4 C4:N4 AQ4:AU4">
-    <cfRule type="duplicateValues" dxfId="10" priority="2147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:Z2">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="2126">
-      <formula>LEN(TRIM(W2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AB4">
-    <cfRule type="duplicateValues" dxfId="8" priority="1920"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AD4">
-    <cfRule type="duplicateValues" dxfId="7" priority="271"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AK3">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="2135">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2135">
       <formula>LEN(TRIM(AK3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AB4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1920"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4:AD4">
+    <cfRule type="duplicateValues" dxfId="1" priority="271"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AS80:AS107">
-    <cfRule type="duplicateValues" dxfId="5" priority="2171"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2172"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2173"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2171"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2172"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AY2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2129">
-      <formula>LEN(TRIM(AU2))&gt;0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="Q4:Z4 AK4:AO4 C4:N4 AQ4:AU4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4 AE4:AG4">
     <cfRule type="duplicateValues" dxfId="1" priority="2148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AY4 AP4 AI4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2149"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2149"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="maplist@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G664" sqref="G664"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="S1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="S2">
         <v>4401</v>
@@ -12708,18 +13044,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="S3">
         <v>4402</v>
@@ -12728,18 +13064,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="S4">
         <v>4403</v>
@@ -12748,21 +13084,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="S5">
         <v>4201</v>
@@ -12771,21 +13107,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="S6">
         <v>4202</v>
@@ -12794,21 +13130,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="S7">
         <v>4203</v>
@@ -12817,15 +13153,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="S8">
         <v>4204</v>
@@ -12834,15 +13170,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="S9">
         <v>4301</v>
@@ -12851,15 +13187,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="B10" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="S10">
         <v>4302</v>
@@ -12868,15 +13204,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="S11">
         <v>4303</v>
@@ -12885,15 +13221,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="S12">
         <v>4304</v>
@@ -12902,15 +13238,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="S13">
         <v>4501</v>
@@ -12919,15 +13255,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="S14">
         <v>4502</v>
@@ -12936,15 +13272,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="S15">
         <v>4503</v>
@@ -12953,15 +13289,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" t="s">
-        <v>180</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="S16">
         <v>4504</v>
@@ -12970,15 +13306,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" t="s">
-        <v>183</v>
+        <v>351</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="S17">
         <v>3401</v>
@@ -12987,15 +13323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -13007,15 +13343,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
       <c r="J19">
         <v>17</v>
@@ -13027,15 +13363,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" t="s">
-        <v>192</v>
+        <v>360</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -13047,18 +13383,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="J21">
         <v>19</v>
@@ -13070,15 +13406,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="S22">
         <v>3203</v>
@@ -13087,12 +13423,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="S23">
         <v>3204</v>
@@ -13101,15 +13437,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="S24">
         <v>3301</v>
@@ -13118,7 +13454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="19:20">
       <c r="S25">
         <v>3302</v>
       </c>
@@ -13126,7 +13462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="19:20">
       <c r="S26">
         <v>2401</v>
       </c>
@@ -13134,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="19:20">
       <c r="S27">
         <v>2201</v>
       </c>
@@ -13143,7 +13479,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26670" windowHeight="12555"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -1560,13 +1560,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,13 +1585,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1769,7 +1762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,12 +1892,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,46 +2103,49 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2167,110 +2157,107 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,13 +2269,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2653,11 +2640,11 @@
   <dimension ref="A1:AY160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="U7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4769,7 +4756,6 @@
       <c r="P20" s="1">
         <v>20</v>
       </c>
-      <c r="Q20" s="1"/>
       <c r="U20" s="1">
         <v>2</v>
       </c>
@@ -6030,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="Z35" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>126</v>

--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skill!$A$4:$AN$160</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1558,13 +1571,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1594,34 +1607,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1635,14 +1620,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1682,6 +1659,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1732,7 +1724,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1789,55 +1802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,31 +1826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,6 +1856,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1909,7 +1880,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,7 +1928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,6 +1959,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,21 +2017,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2047,6 +2045,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2106,145 +2119,145 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -2257,7 +2270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2293,52 +2306,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -2640,11 +2653,11 @@
   <dimension ref="A1:AY160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="U7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z36" sqref="Z36"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4754,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U20" s="1">
         <v>2</v>

--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -1062,9 +1062,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
@@ -1605,19 +1605,19 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2132,11 +2132,11 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>

--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -817,7 +817,7 @@
     <t>Assets/Datas/Texture/skill/icon_skill_A02.png</t>
   </si>
   <si>
-    <t>烈焰弩手-测试-普攻</t>
+    <t>潮汐勇士-普攻</t>
   </si>
   <si>
     <t>索敌参数</t>
@@ -1062,10 +1062,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
@@ -1614,19 +1614,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2132,11 +2132,11 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -2993,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>

--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -2132,11 +2132,11 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Z5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>124</v>
@@ -3015,20 +3015,20 @@
         <v>124</v>
       </c>
       <c r="N8" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>124</v>

--- a/Developer/配置表/Excel/skill.xlsx
+++ b/Developer/配置表/Excel/skill.xlsx
@@ -1062,11 +1062,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1605,28 +1605,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1759,7 +1759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2132,11 +2132,11 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Z5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -3040,7 +3040,7 @@
         <v>124</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>10</v>
